--- a/data/trans_orig/IP07C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FCFC7C-C3EA-4FFC-8A68-8321FB24FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C245CB0-C968-4813-964E-B1051922474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B7DAB11-F649-41DA-B995-13290320EE2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31B4A720-3AA8-4FD5-96D2-FB414E92AEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="460">
   <si>
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -76,1339 +76,1348 @@
     <t>48,85%</t>
   </si>
   <si>
-    <t>37,06%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>64,22%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
     <t>59,19%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
+    <t>26,85%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>10,21%</t>
+    <t>10,03%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DE5E4-1BE8-4DAF-91BF-0C9EF659032A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAEAB7-1369-4F5F-835B-983DCD2EA244}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2279,7 +2288,7 @@
         <v>271</v>
       </c>
       <c r="N10" s="7">
-        <v>179907</v>
+        <v>179908</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>59</v>
@@ -2330,7 +2339,7 @@
         <v>287</v>
       </c>
       <c r="N11" s="7">
-        <v>191971</v>
+        <v>191972</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>68</v>
@@ -2381,7 +2390,7 @@
         <v>50</v>
       </c>
       <c r="N12" s="7">
-        <v>32457</v>
+        <v>32458</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>77</v>
@@ -2534,7 +2543,7 @@
         <v>610</v>
       </c>
       <c r="N15" s="7">
-        <v>405639</v>
+        <v>405640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -2680,10 +2689,10 @@
         <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2692,13 +2701,13 @@
         <v>12014</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2722,13 @@
         <v>808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2728,13 +2737,13 @@
         <v>1379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2743,13 +2752,13 @@
         <v>2188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2785,7 +2794,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2800,7 +2809,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2877,13 @@
         <v>136262</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -2883,13 +2892,13 @@
         <v>125131</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>392</v>
@@ -2898,13 +2907,13 @@
         <v>261394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2928,13 @@
         <v>142890</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>206</v>
@@ -2934,13 +2943,13 @@
         <v>139170</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>421</v>
@@ -2949,13 +2958,13 @@
         <v>282061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2979,13 @@
         <v>26878</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -2985,13 +2994,13 @@
         <v>22932</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>75</v>
@@ -3000,13 +3009,13 @@
         <v>49810</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3030,13 @@
         <v>1488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3036,13 +3045,13 @@
         <v>2682</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3051,13 +3060,13 @@
         <v>4170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,7 +3087,7 @@
         <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3093,7 +3102,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3108,7 +3117,7 @@
         <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3173,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C770919-B40E-4A4C-8738-13075B08B16A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D48125A-A1DA-4130-B2F1-9DDC523CCB9E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3200,7 +3209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3307,13 +3316,13 @@
         <v>22173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3322,13 +3331,13 @@
         <v>26970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3337,13 +3346,13 @@
         <v>49143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3367,13 @@
         <v>16493</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -3373,13 +3382,13 @@
         <v>18011</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3388,13 +3397,13 @@
         <v>34504</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3418,13 @@
         <v>5845</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3424,13 +3433,13 @@
         <v>4612</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3439,13 +3448,13 @@
         <v>10457</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3469,13 @@
         <v>651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3475,13 +3484,13 @@
         <v>1265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3490,13 +3499,13 @@
         <v>1916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,7 +3526,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3526,13 +3535,13 @@
         <v>768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3541,13 +3550,13 @@
         <v>768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3624,13 @@
         <v>127790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -3630,13 +3639,13 @@
         <v>98184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>327</v>
@@ -3645,13 +3654,13 @@
         <v>225974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3675,13 @@
         <v>76290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>117</v>
@@ -3681,13 +3690,13 @@
         <v>81350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>226</v>
@@ -3696,13 +3705,13 @@
         <v>157640</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3726,13 @@
         <v>12902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -3732,13 +3741,13 @@
         <v>15334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -3747,13 +3756,13 @@
         <v>28236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3777,13 @@
         <v>3120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3783,13 +3792,13 @@
         <v>2010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3798,13 +3807,13 @@
         <v>5129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3828,13 @@
         <v>2771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3834,13 +3843,13 @@
         <v>2079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3849,13 +3858,13 @@
         <v>4850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3932,13 @@
         <v>31578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3938,13 +3947,13 @@
         <v>38096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -3953,13 +3962,13 @@
         <v>69674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3983,13 @@
         <v>19212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -3989,13 +3998,13 @@
         <v>15827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -4004,13 +4013,13 @@
         <v>35039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4034,13 @@
         <v>3639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4040,13 +4049,13 @@
         <v>4491</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4055,13 +4064,13 @@
         <v>8130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,7 +4091,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4097,7 +4106,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4112,7 +4121,7 @@
         <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4136,13 @@
         <v>625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4157,7 +4166,7 @@
         <v>2276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>275</v>
@@ -4285,10 +4294,10 @@
         <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -4297,13 +4306,13 @@
         <v>115188</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>325</v>
@@ -4312,13 +4321,13 @@
         <v>227182</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4342,13 @@
         <v>22387</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -4348,13 +4357,13 @@
         <v>24436</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -4363,13 +4372,13 @@
         <v>46823</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4393,13 @@
         <v>3771</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4399,13 +4408,13 @@
         <v>3275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4414,13 +4423,13 @@
         <v>7046</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4444,13 @@
         <v>3396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4450,13 +4459,13 @@
         <v>4498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4465,13 +4474,13 @@
         <v>7894</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,7 +4536,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4546,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF2B3BA-036E-4A5A-B43F-D5336FE07DB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3C5EB2-C99A-4358-98DE-DE664C004DB9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4563,7 +4572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4670,13 +4679,13 @@
         <v>16964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4685,13 +4694,13 @@
         <v>10756</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4700,13 +4709,13 @@
         <v>27719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4730,13 @@
         <v>17566</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -4736,13 +4745,13 @@
         <v>14216</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4751,13 +4760,13 @@
         <v>31782</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4781,13 @@
         <v>1391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4787,13 +4796,13 @@
         <v>3700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4802,13 +4811,13 @@
         <v>5091</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4832,13 @@
         <v>717</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4838,13 +4847,13 @@
         <v>564</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4853,13 +4862,13 @@
         <v>1281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4889,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4889,13 +4898,13 @@
         <v>1370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4904,13 +4913,13 @@
         <v>1370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4987,13 @@
         <v>136181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -4993,13 +5002,13 @@
         <v>147336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>396</v>
@@ -5008,13 +5017,13 @@
         <v>283518</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5038,13 @@
         <v>72805</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>104</v>
@@ -5044,13 +5053,13 @@
         <v>72240</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>204</v>
@@ -5059,13 +5068,13 @@
         <v>145046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5089,13 @@
         <v>20560</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -5095,13 +5104,13 @@
         <v>21591</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -5110,13 +5119,13 @@
         <v>42152</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>372</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5140,13 @@
         <v>3015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5146,13 +5155,13 @@
         <v>1564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5161,13 +5170,13 @@
         <v>4579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5191,13 @@
         <v>1942</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5197,13 +5206,13 @@
         <v>626</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5215,10 +5224,10 @@
         <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5295,13 @@
         <v>54144</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5301,13 +5310,13 @@
         <v>46143</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -5316,13 +5325,13 @@
         <v>100287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5346,13 @@
         <v>14879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5352,13 +5361,13 @@
         <v>19697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -5367,13 +5376,13 @@
         <v>34575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5397,13 @@
         <v>5930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5403,13 +5412,13 @@
         <v>3772</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5418,13 +5427,13 @@
         <v>9702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5454,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5454,13 +5463,13 @@
         <v>1479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5469,13 +5478,13 @@
         <v>1479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5499,13 @@
         <v>549</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5511,7 +5520,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5520,13 +5529,13 @@
         <v>549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5603,13 @@
         <v>207289</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>291</v>
@@ -5609,13 +5618,13 @@
         <v>204235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -5624,13 +5633,13 @@
         <v>411524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5654,13 @@
         <v>105251</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>152</v>
@@ -5660,13 +5669,13 @@
         <v>106153</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>215</v>
       </c>
       <c r="M23" s="7">
         <v>298</v>
@@ -5675,13 +5684,13 @@
         <v>211404</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5705,13 @@
         <v>27882</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -5711,13 +5720,13 @@
         <v>29063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>441</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
@@ -5726,13 +5735,13 @@
         <v>56944</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5756,13 @@
         <v>3733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5762,13 +5771,13 @@
         <v>3606</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5777,13 +5786,13 @@
         <v>7339</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5807,13 @@
         <v>2490</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5813,13 +5822,13 @@
         <v>1996</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5828,13 +5837,13 @@
         <v>4487</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,7 +5899,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C245CB0-C968-4813-964E-B1051922474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E373DB-E23D-466A-A2AB-EB479AF3AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31B4A720-3AA8-4FD5-96D2-FB414E92AEC1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B91FBEC8-16A7-4BB8-BF44-7133CF064A24}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="466">
   <si>
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1351 +73,1369 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
     <t>48,85%</t>
   </si>
   <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
     <t>36,52%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>35,11%</t>
   </si>
   <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2016 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAEAB7-1369-4F5F-835B-983DCD2EA244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2EC410-E6ED-4DF2-8969-3C13229E832B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,10 +1965,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>21114</v>
+        <v>19270</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1962,10 +1980,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>19270</v>
+        <v>21114</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1998,10 +2016,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>19393</v>
+        <v>22714</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2013,10 +2031,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>22714</v>
+        <v>19393</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2049,10 +2067,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>2038</v>
+        <v>3301</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2064,10 +2082,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>3301</v>
+        <v>2038</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2100,10 +2118,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2115,16 +2133,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -2139,7 +2157,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2157,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2172,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2187,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,34 +2220,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>68</v>
-      </c>
-      <c r="I9" s="7">
-        <v>45285</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -2238,66 +2256,66 @@
         <v>88509</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>126</v>
+      </c>
+      <c r="D10" s="7">
+        <v>83634</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="7">
         <v>145</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>96274</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7">
-        <v>126</v>
-      </c>
-      <c r="I10" s="7">
-        <v>83634</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>271</v>
       </c>
       <c r="N10" s="7">
-        <v>179908</v>
+        <v>179907</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,49 +2324,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>139</v>
+      </c>
+      <c r="D11" s="7">
+        <v>93926</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7">
         <v>148</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>98046</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="7">
-        <v>139</v>
-      </c>
-      <c r="I11" s="7">
-        <v>93926</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
       </c>
       <c r="N11" s="7">
-        <v>191972</v>
+        <v>191971</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +2375,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11523</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
         <v>32</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>20934</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11523</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>50</v>
+      </c>
+      <c r="N12" s="7">
+        <v>32457</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="7">
-        <v>50</v>
-      </c>
-      <c r="N12" s="7">
-        <v>32458</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,34 +2426,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2444,13 +2462,13 @@
         <v>1303</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2480,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2495,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,87 +2528,87 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>325</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215254</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>610</v>
       </c>
       <c r="N15" s="7">
-        <v>405640</v>
+        <v>405639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22227</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>18875</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22227</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -2599,13 +2617,13 @@
         <v>41103</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,34 +2632,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>22531</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>25451</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22531</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -2650,13 +2668,13 @@
         <v>47983</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,34 +2683,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8108</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3906</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8108</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2701,13 +2719,13 @@
         <v>12014</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,34 +2734,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1379</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>808</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1379</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2752,13 +2770,13 @@
         <v>2188</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2791,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2788,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2803,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,34 +2836,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -2854,13 +2872,13 @@
         <v>103287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,34 +2889,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>187</v>
+      </c>
+      <c r="D22" s="7">
+        <v>125131</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="7">
         <v>205</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>136262</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="7">
-        <v>187</v>
-      </c>
-      <c r="I22" s="7">
-        <v>125131</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>392</v>
@@ -2907,13 +2925,13 @@
         <v>261394</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,34 +2940,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>206</v>
+      </c>
+      <c r="D23" s="7">
+        <v>139170</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="7">
         <v>215</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>142890</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="7">
-        <v>206</v>
-      </c>
-      <c r="I23" s="7">
-        <v>139170</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>421</v>
@@ -2958,13 +2976,13 @@
         <v>282061</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,34 +2991,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22932</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="7">
         <v>41</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>26878</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="7">
-        <v>34</v>
-      </c>
-      <c r="I24" s="7">
-        <v>22932</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>75</v>
@@ -3009,13 +3027,13 @@
         <v>49810</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,34 +3042,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>1488</v>
+        <v>2682</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>2682</v>
+        <v>1488</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3060,13 +3078,13 @@
         <v>4170</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3096,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3111,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,34 +3144,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>431</v>
+      </c>
+      <c r="D27" s="7">
+        <v>289916</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>463</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>307518</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>431</v>
-      </c>
-      <c r="I27" s="7">
-        <v>289916</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>894</v>
@@ -3162,18 +3180,18 @@
         <v>597435</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D48125A-A1DA-4130-B2F1-9DDC523CCB9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE5179-7668-4D4E-BFE1-7AE37B234EAF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,7 +3227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3310,34 +3328,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26970</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="7">
         <v>32</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>22173</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="7">
-        <v>38</v>
-      </c>
-      <c r="I4" s="7">
-        <v>26970</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3346,13 +3364,13 @@
         <v>49143</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,34 +3379,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18011</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16493</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18011</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3397,13 +3415,13 @@
         <v>34504</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,34 +3430,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4612</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5845</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4612</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3448,13 +3466,13 @@
         <v>10457</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,31 +3481,31 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>651</v>
+        <v>1265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1265</v>
+        <v>651</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>193</v>
@@ -3502,10 +3520,10 @@
         <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,34 +3532,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>197</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3550,13 +3568,13 @@
         <v>768</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,34 +3583,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -3601,51 +3619,51 @@
         <v>96787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7">
+        <v>98184</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="7">
         <v>188</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>127790</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="7">
-        <v>139</v>
-      </c>
-      <c r="I10" s="7">
-        <v>98184</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>327</v>
@@ -3654,13 +3672,13 @@
         <v>225974</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,34 +3687,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>117</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81350</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="7">
         <v>109</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>76290</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="7">
-        <v>117</v>
-      </c>
-      <c r="I11" s="7">
-        <v>81350</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>226</v>
@@ -3705,13 +3723,13 @@
         <v>157640</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,34 +3738,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15334</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="7">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>12902</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15334</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -3756,13 +3774,13 @@
         <v>28236</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,34 +3789,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2010</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3120</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2010</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3807,13 +3825,13 @@
         <v>5129</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,31 +3840,31 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2771</v>
+        <v>2079</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>238</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2079</v>
+        <v>2771</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>240</v>
@@ -3873,34 +3891,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>198957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>325</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>222873</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>198957</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>610</v>
@@ -3909,27 +3927,27 @@
         <v>421830</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>31578</v>
+        <v>38096</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>244</v>
@@ -3941,19 +3959,19 @@
         <v>246</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>38096</v>
+        <v>31578</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -3962,13 +3980,13 @@
         <v>69674</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,34 +3995,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>15827</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="7">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>19212</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15827</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -4013,13 +4031,13 @@
         <v>35039</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,34 +4046,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4491</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3639</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4491</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4064,7 +4082,7 @@
         <v>8130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>267</v>
@@ -4085,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>269</v>
@@ -4100,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>270</v>
@@ -4115,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>271</v>
@@ -4130,34 +4148,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>625</v>
+        <v>1651</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1651</v>
+        <v>625</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4169,10 +4187,10 @@
         <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,34 +4199,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60065</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>81</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>55054</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60065</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>165</v>
@@ -4217,13 +4235,13 @@
         <v>115119</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,34 +4252,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>231</v>
+      </c>
+      <c r="D22" s="7">
+        <v>163250</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="7">
         <v>267</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>181540</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H22" s="7">
-        <v>231</v>
-      </c>
-      <c r="I22" s="7">
-        <v>163250</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>498</v>
@@ -4270,13 +4288,13 @@
         <v>344790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,34 +4303,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>165</v>
+      </c>
+      <c r="D23" s="7">
+        <v>115188</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="7">
         <v>160</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>111994</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H23" s="7">
-        <v>165</v>
-      </c>
-      <c r="I23" s="7">
-        <v>115188</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>325</v>
@@ -4321,13 +4339,13 @@
         <v>227182</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,34 +4354,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24436</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="7">
         <v>32</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>22387</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H24" s="7">
-        <v>35</v>
-      </c>
-      <c r="I24" s="7">
-        <v>24436</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -4372,13 +4390,13 @@
         <v>46823</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,31 +4405,31 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3275</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3771</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3275</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>307</v>
@@ -4438,34 +4456,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4498</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3396</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4498</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4474,13 +4492,13 @@
         <v>7894</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,34 +4507,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>442</v>
+      </c>
+      <c r="D27" s="7">
+        <v>310647</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>470</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>323089</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>310647</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>912</v>
@@ -4525,18 +4543,18 @@
         <v>633736</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3C5EB2-C99A-4358-98DE-DE664C004DB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298B6843-C4A7-4C4F-9838-3E5FC3BD8076}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4572,7 +4590,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4673,34 +4691,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10756</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="7">
         <v>23</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>16964</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10756</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4709,13 +4727,13 @@
         <v>27719</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,34 +4742,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14216</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17566</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14216</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4760,13 +4778,13 @@
         <v>31782</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,34 +4793,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3700</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1391</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3700</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4811,13 +4829,13 @@
         <v>5091</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,31 +4847,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>717</v>
+        <v>564</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>564</v>
+        <v>717</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4862,13 +4880,13 @@
         <v>1281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,28 +4895,28 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>350</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
@@ -4916,7 +4934,7 @@
         <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>353</v>
@@ -4928,34 +4946,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4964,27 +4982,27 @@
         <v>67244</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D10" s="7">
-        <v>136181</v>
+        <v>147336</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>354</v>
@@ -4996,10 +5014,10 @@
         <v>356</v>
       </c>
       <c r="H10" s="7">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="I10" s="7">
-        <v>147336</v>
+        <v>136181</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>357</v>
@@ -5032,10 +5050,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7">
-        <v>72805</v>
+        <v>72240</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>363</v>
@@ -5047,10 +5065,10 @@
         <v>365</v>
       </c>
       <c r="H11" s="7">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7">
-        <v>72240</v>
+        <v>72805</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>366</v>
@@ -5068,13 +5086,13 @@
         <v>145046</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,31 +5101,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>21591</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>20560</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H12" s="7">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7">
-        <v>21591</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>376</v>
@@ -5125,7 +5143,7 @@
         <v>378</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,34 +5152,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1564</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3015</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1564</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5170,13 +5188,13 @@
         <v>4579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,34 +5203,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1942</v>
+        <v>626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>386</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>626</v>
+        <v>1942</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5221,13 +5239,13 @@
         <v>2568</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,34 +5254,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>348</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243358</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>320</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>234504</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>348</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243358</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>668</v>
@@ -5272,51 +5290,51 @@
         <v>477863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7">
+        <v>46143</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H16" s="7">
         <v>74</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>54144</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H16" s="7">
-        <v>65</v>
-      </c>
-      <c r="I16" s="7">
-        <v>46143</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -5325,13 +5343,13 @@
         <v>100287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,34 +5358,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19697</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H17" s="7">
         <v>21</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>14879</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7">
-        <v>19697</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -5376,13 +5394,13 @@
         <v>34575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,34 +5409,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3772</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5930</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3772</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5427,13 +5445,13 @@
         <v>9702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,34 +5460,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1479</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1479</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5478,13 +5496,13 @@
         <v>1479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,34 +5511,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5529,13 +5547,13 @@
         <v>549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,34 +5562,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -5580,13 +5598,13 @@
         <v>146592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,34 +5615,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>291</v>
+      </c>
+      <c r="D22" s="7">
+        <v>204235</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="7">
         <v>283</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>207289</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" s="7">
-        <v>291</v>
-      </c>
-      <c r="I22" s="7">
-        <v>204235</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -5633,13 +5651,13 @@
         <v>411524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,34 +5666,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>152</v>
+      </c>
+      <c r="D23" s="7">
+        <v>106153</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H23" s="7">
         <v>146</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>105251</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H23" s="7">
-        <v>152</v>
-      </c>
-      <c r="I23" s="7">
-        <v>106153</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>298</v>
@@ -5684,13 +5702,13 @@
         <v>211404</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,34 +5717,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7">
+        <v>29063</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H24" s="7">
         <v>38</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>27882</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H24" s="7">
-        <v>41</v>
-      </c>
-      <c r="I24" s="7">
-        <v>29063</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>448</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
@@ -5735,13 +5753,13 @@
         <v>56944</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>262</v>
+        <v>451</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,31 +5771,31 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>3733</v>
+        <v>3606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>236</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>453</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>3606</v>
+        <v>3733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>239</v>
+        <v>455</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5786,13 +5804,13 @@
         <v>7339</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,34 +5819,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1996</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2490</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1996</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>235</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5837,13 +5855,13 @@
         <v>4487</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,34 +5870,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>492</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345054</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>476</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>346644</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>492</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345054</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>968</v>
@@ -5888,18 +5906,18 @@
         <v>691698</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
